--- a/Doc/02_設計書/詳細設計書/【内定者研修】機能仕様書_X001(ゲーム中断処理).xlsx
+++ b/Doc/02_設計書/詳細設計書/【内定者研修】機能仕様書_X001(ゲーム中断処理).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743DF835-AB4D-4E4D-A6FB-C9B2172AFF9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72378487-23A4-43C9-B2D5-E4E115CEBED8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,38 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>確認メッセージ：ゲームの途中ですが中断しますか？</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チュウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン：「盤面を保存して終了」「保存せず終了」「キャンセル」</t>
-    <rPh sb="5" eb="7">
-      <t>バンメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
       <t>コウバン</t>
@@ -850,6 +818,26 @@
     <rPh sb="14" eb="16">
       <t>オウカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認メッセージ：盤面を保存して中断しますか？</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン：「はい」「いいえ」「キャンセル」</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -857,7 +845,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,17 +1093,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1125,6 +1104,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2653,303 +2641,303 @@
       <selection activeCell="A2" sqref="A2:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="47" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="47" width="2.625" style="1" customWidth="1"/>
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:47">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14" t="s">
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+    </row>
+    <row r="2" spans="1:47">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="16">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="19">
         <v>1</v>
       </c>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="17">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20">
         <v>44588</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16" t="s">
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-    </row>
-    <row r="3" spans="1:47" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="19" t="s">
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+    </row>
+    <row r="3" spans="1:47" ht="8.25" customHeight="1"/>
+    <row r="4" spans="1:47">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18" t="s">
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18" t="s">
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15" t="s">
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15" t="s">
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-    </row>
-    <row r="6" spans="1:47" ht="9" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="19" t="s">
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+    </row>
+    <row r="6" spans="1:47" ht="9" customHeight="1"/>
+    <row r="7" spans="1:47">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AU8" s="4"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:47">
       <c r="A9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="1" t="s">
@@ -2957,12 +2945,12 @@
       </c>
       <c r="AU9" s="5"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:47">
       <c r="A10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AU10" s="5"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:47">
       <c r="A11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="1" t="s">
@@ -2970,12 +2958,12 @@
       </c>
       <c r="AU11" s="5"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:47">
       <c r="A12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AU12" s="5"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:47">
       <c r="A13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="1" t="s">
@@ -2983,115 +2971,115 @@
       </c>
       <c r="AU13" s="5"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:47">
       <c r="A14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AU14" s="5"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:47">
       <c r="A15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AU15" s="5"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:47">
       <c r="A16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AU16" s="5"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:47">
       <c r="A17" s="3"/>
       <c r="P17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AU17" s="5"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:47">
       <c r="A18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AU18" s="5"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:47">
       <c r="A19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AU19" s="5"/>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:47">
       <c r="A20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AU20" s="5"/>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:47">
       <c r="A21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AU21" s="5"/>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:47">
       <c r="A22" s="3"/>
       <c r="B22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AU22" s="5"/>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:47">
       <c r="A23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AU23" s="5"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:47">
       <c r="A24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AU24" s="5"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:47">
       <c r="A25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AU25" s="5"/>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:47">
       <c r="A26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AU26" s="5"/>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:47">
       <c r="A27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AU27" s="5"/>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:47">
       <c r="A28" s="3"/>
       <c r="H28" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z28" s="3"/>
       <c r="AU28" s="5"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:47">
       <c r="A29" s="3"/>
       <c r="B29" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AU29" s="5"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:47">
       <c r="A30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AU30" s="5"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:47">
       <c r="A31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AU31" s="5"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:47">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3142,6 +3130,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AM5:AU5"/>
     <mergeCell ref="I4:R4"/>
     <mergeCell ref="S4:AB4"/>
@@ -3153,14 +3149,6 @@
     <mergeCell ref="I5:R5"/>
     <mergeCell ref="S5:AB5"/>
     <mergeCell ref="AC5:AL5"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AP2"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3177,255 +3165,255 @@
   <dimension ref="A1:AV49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="64" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="64" width="2.625" style="1" customWidth="1"/>
     <col min="65" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:48">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14" t="s">
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="15" t="s">
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+    </row>
+    <row r="2" spans="1:48">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="16">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="19">
         <v>1</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="17">
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="20">
         <v>44588</v>
       </c>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16" t="s">
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-    </row>
-    <row r="3" spans="1:48" ht="8.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18" t="s">
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+    </row>
+    <row r="3" spans="1:48" ht="8.25" customHeight="1"/>
+    <row r="4" spans="1:48">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18" t="s">
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18" t="s">
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="15" t="s">
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+    </row>
+    <row r="5" spans="1:48">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15" t="s">
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15" t="s">
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="14"/>
+      <c r="AN5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-    </row>
-    <row r="6" spans="1:48" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="14"/>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+    </row>
+    <row r="6" spans="1:48" ht="10.5" customHeight="1"/>
+    <row r="7" spans="1:48">
       <c r="A7" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>20</v>
@@ -3481,7 +3469,7 @@
       <c r="AU7" s="21"/>
       <c r="AV7" s="21"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:48">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -3500,7 +3488,7 @@
       <c r="AK8" s="2"/>
       <c r="AV8" s="4"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:48">
       <c r="A9" s="23"/>
       <c r="B9" s="28"/>
       <c r="C9" s="37"/>
@@ -3516,11 +3504,11 @@
         <v>24</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AV9" s="5"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:48">
       <c r="A10" s="23"/>
       <c r="B10" s="28"/>
       <c r="C10" s="37"/>
@@ -3533,14 +3521,14 @@
       <c r="J10" s="30"/>
       <c r="K10" s="3"/>
       <c r="M10" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AV10" s="5"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:48">
       <c r="A11" s="23"/>
       <c r="B11" s="28"/>
       <c r="C11" s="37"/>
@@ -3553,11 +3541,11 @@
       <c r="J11" s="30"/>
       <c r="K11" s="3"/>
       <c r="AK11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AV11" s="5"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:48">
       <c r="A12" s="23"/>
       <c r="B12" s="28"/>
       <c r="C12" s="37"/>
@@ -3575,7 +3563,7 @@
       <c r="AK12" s="3"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:48">
       <c r="A13" s="23"/>
       <c r="B13" s="28"/>
       <c r="C13" s="37"/>
@@ -3588,12 +3576,12 @@
       <c r="J13" s="30"/>
       <c r="K13" s="3"/>
       <c r="M13" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="AK13" s="3"/>
       <c r="AV13" s="5"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:48">
       <c r="A14" s="23"/>
       <c r="B14" s="28"/>
       <c r="C14" s="37"/>
@@ -3606,12 +3594,12 @@
       <c r="J14" s="30"/>
       <c r="K14" s="3"/>
       <c r="M14" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AK14" s="3"/>
       <c r="AV14" s="5"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:48">
       <c r="A15" s="23"/>
       <c r="B15" s="28"/>
       <c r="C15" s="37"/>
@@ -3626,7 +3614,7 @@
       <c r="AK15" s="3"/>
       <c r="AV15" s="5"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:48">
       <c r="A16" s="23"/>
       <c r="B16" s="28"/>
       <c r="C16" s="37"/>
@@ -3639,12 +3627,12 @@
       <c r="J16" s="30"/>
       <c r="K16" s="3"/>
       <c r="M16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AV16" s="5"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:48">
       <c r="A17" s="23"/>
       <c r="B17" s="28"/>
       <c r="C17" s="37"/>
@@ -3657,12 +3645,12 @@
       <c r="J17" s="30"/>
       <c r="K17" s="3"/>
       <c r="O17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AK17" s="3"/>
       <c r="AV17" s="5"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:48">
       <c r="A18" s="23"/>
       <c r="B18" s="28"/>
       <c r="C18" s="37"/>
@@ -3675,12 +3663,12 @@
       <c r="J18" s="30"/>
       <c r="K18" s="3"/>
       <c r="O18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AK18" s="3"/>
       <c r="AV18" s="5"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:48">
       <c r="A19" s="23"/>
       <c r="B19" s="28"/>
       <c r="C19" s="37"/>
@@ -3695,7 +3683,7 @@
       <c r="AK19" s="3"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:48">
       <c r="A20" s="23"/>
       <c r="B20" s="28"/>
       <c r="C20" s="37"/>
@@ -3708,12 +3696,12 @@
       <c r="J20" s="30"/>
       <c r="K20" s="3"/>
       <c r="M20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AK20" s="3"/>
       <c r="AV20" s="5"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:48">
       <c r="A21" s="23"/>
       <c r="B21" s="28"/>
       <c r="C21" s="37"/>
@@ -3726,12 +3714,12 @@
       <c r="J21" s="30"/>
       <c r="K21" s="3"/>
       <c r="M21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AK21" s="3"/>
       <c r="AV21" s="5"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:48">
       <c r="A22" s="24"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -3781,12 +3769,12 @@
       <c r="AU22" s="7"/>
       <c r="AV22" s="8"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:48">
       <c r="A23" s="22">
         <v>2</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
@@ -3800,7 +3788,7 @@
       <c r="AK23" s="3"/>
       <c r="AV23" s="5"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:48">
       <c r="A24" s="23"/>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
@@ -3813,15 +3801,15 @@
       <c r="J24" s="30"/>
       <c r="K24" s="3"/>
       <c r="L24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK24" s="3"/>
       <c r="AL24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AV24" s="5"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:48">
       <c r="A25" s="23"/>
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
@@ -3834,19 +3822,19 @@
       <c r="J25" s="30"/>
       <c r="K25" s="3"/>
       <c r="M25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK25" s="3"/>
       <c r="AM25" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AN25" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AO25" s="10"/>
       <c r="AV25" s="5"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:48">
       <c r="A26" s="23"/>
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
@@ -3859,19 +3847,19 @@
       <c r="J26" s="30"/>
       <c r="K26" s="3"/>
       <c r="M26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AK26" s="3"/>
       <c r="AM26" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AN26" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO26" s="10"/>
       <c r="AV26" s="5"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:48">
       <c r="A27" s="23"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
@@ -3884,7 +3872,7 @@
       <c r="J27" s="30"/>
       <c r="K27" s="3"/>
       <c r="M27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AK27" s="3"/>
       <c r="AM27" s="10"/>
@@ -3892,7 +3880,7 @@
       <c r="AO27" s="10"/>
       <c r="AV27" s="5"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:48">
       <c r="A28" s="23"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
@@ -3905,12 +3893,12 @@
       <c r="J28" s="30"/>
       <c r="K28" s="3"/>
       <c r="M28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK28" s="3"/>
       <c r="AV28" s="5"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:48">
       <c r="A29" s="23"/>
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
@@ -3923,15 +3911,15 @@
       <c r="J29" s="30"/>
       <c r="K29" s="3"/>
       <c r="M29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK29" s="3"/>
       <c r="AL29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AV29" s="5"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:48">
       <c r="A30" s="23"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
@@ -3944,15 +3932,15 @@
       <c r="J30" s="30"/>
       <c r="K30" s="3"/>
       <c r="M30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AV30" s="5"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:48">
       <c r="A31" s="23"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
@@ -3965,12 +3953,12 @@
       <c r="J31" s="30"/>
       <c r="K31" s="3"/>
       <c r="M31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK31" s="3"/>
       <c r="AV31" s="5"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:48">
       <c r="A32" s="23"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
@@ -3983,12 +3971,12 @@
       <c r="J32" s="30"/>
       <c r="K32" s="3"/>
       <c r="M32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK32" s="3"/>
       <c r="AV32" s="5"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:48">
       <c r="A33" s="23"/>
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
@@ -4003,7 +3991,7 @@
       <c r="AK33" s="3"/>
       <c r="AV33" s="5"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:48">
       <c r="A34" s="23"/>
       <c r="B34" s="28"/>
       <c r="C34" s="29"/>
@@ -4016,12 +4004,12 @@
       <c r="J34" s="30"/>
       <c r="K34" s="3"/>
       <c r="L34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AK34" s="3"/>
       <c r="AV34" s="5"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:48">
       <c r="A35" s="23"/>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -4034,15 +4022,15 @@
       <c r="J35" s="30"/>
       <c r="K35" s="3"/>
       <c r="M35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AV35" s="5"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:48">
       <c r="A36" s="23"/>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
@@ -4055,12 +4043,12 @@
       <c r="J36" s="30"/>
       <c r="K36" s="3"/>
       <c r="M36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK36" s="3"/>
       <c r="AV36" s="5"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:48">
       <c r="A37" s="23"/>
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
@@ -4073,12 +4061,12 @@
       <c r="J37" s="30"/>
       <c r="K37" s="3"/>
       <c r="M37" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AK37" s="3"/>
       <c r="AV37" s="5"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:48">
       <c r="A38" s="23"/>
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
@@ -4091,12 +4079,12 @@
       <c r="J38" s="30"/>
       <c r="K38" s="3"/>
       <c r="M38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK38" s="3"/>
       <c r="AV38" s="5"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:48">
       <c r="A39" s="23"/>
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
@@ -4109,12 +4097,12 @@
       <c r="J39" s="30"/>
       <c r="K39" s="3"/>
       <c r="M39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AK39" s="3"/>
       <c r="AV39" s="5"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:48">
       <c r="A40" s="23"/>
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
@@ -4127,12 +4115,12 @@
       <c r="J40" s="30"/>
       <c r="K40" s="3"/>
       <c r="M40" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK40" s="3"/>
       <c r="AV40" s="5"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:48">
       <c r="A41" s="23"/>
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
@@ -4145,12 +4133,12 @@
       <c r="J41" s="30"/>
       <c r="K41" s="3"/>
       <c r="M41" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AK41" s="3"/>
       <c r="AV41" s="5"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:48">
       <c r="A42" s="23"/>
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
@@ -4163,12 +4151,12 @@
       <c r="J42" s="30"/>
       <c r="K42" s="3"/>
       <c r="M42" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AK42" s="3"/>
       <c r="AV42" s="5"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:48">
       <c r="A43" s="23"/>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
@@ -4184,7 +4172,7 @@
       <c r="AK43" s="3"/>
       <c r="AV43" s="5"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:48">
       <c r="A44" s="23"/>
       <c r="B44" s="28"/>
       <c r="C44" s="29"/>
@@ -4197,14 +4185,14 @@
       <c r="J44" s="30"/>
       <c r="K44" s="3"/>
       <c r="L44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK44" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AV44" s="5"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:48">
       <c r="A45" s="23"/>
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
@@ -4217,14 +4205,14 @@
       <c r="J45" s="30"/>
       <c r="K45" s="3"/>
       <c r="M45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK45" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AV45" s="5"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:48">
       <c r="A46" s="23"/>
       <c r="B46" s="28"/>
       <c r="C46" s="29"/>
@@ -4237,12 +4225,12 @@
       <c r="J46" s="30"/>
       <c r="K46" s="3"/>
       <c r="M46" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK46" s="3"/>
       <c r="AV46" s="5"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:48">
       <c r="A47" s="23"/>
       <c r="B47" s="28"/>
       <c r="C47" s="29"/>
@@ -4255,11 +4243,11 @@
       <c r="J47" s="30"/>
       <c r="K47" s="3"/>
       <c r="AK47" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AV47" s="5"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:48">
       <c r="A48" s="23"/>
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
@@ -4272,11 +4260,11 @@
       <c r="J48" s="30"/>
       <c r="K48" s="3"/>
       <c r="AK48" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AV48" s="5"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:48">
       <c r="A49" s="24"/>
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
@@ -4328,17 +4316,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AN5:AV5"/>
-    <mergeCell ref="A23:A49"/>
-    <mergeCell ref="B23:J49"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="T5:AC5"/>
-    <mergeCell ref="AD5:AM5"/>
-    <mergeCell ref="A8:A22"/>
-    <mergeCell ref="B8:J22"/>
     <mergeCell ref="AR1:AV1"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:AG2"/>
@@ -4352,6 +4329,17 @@
     <mergeCell ref="AH2:AK2"/>
     <mergeCell ref="AL2:AQ2"/>
     <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="K7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AN5:AV5"/>
+    <mergeCell ref="A23:A49"/>
+    <mergeCell ref="B23:J49"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="T5:AC5"/>
+    <mergeCell ref="AD5:AM5"/>
+    <mergeCell ref="A8:A22"/>
+    <mergeCell ref="B8:J22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
